--- a/China_bond.xlsx
+++ b/China_bond.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE64007-4CB9-4E82-B4EE-CCB62E30BD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E46C9D-31F0-4B99-94EC-323D7FD1C0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="16875" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentManualCount="16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>交易时间</t>
+    <t>close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收盘价</t>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,10 +398,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
